--- a/Python/required files/Packing list log.xlsx
+++ b/Python/required files/Packing list log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Shipping method</t>
+          <t>shipping method</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -473,41 +473,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bionobis</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4234234</v>
-      </c>
+          <t>Bionobis</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>220624</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4fsdsdfsfdsf</t>
-        </is>
-      </c>
+        <v>220706</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>dry ice</t>
+          <t>ambient</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-06-24 11:24:23.230461</t>
+          <t>2022-07-06 16:50:12.672394</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Auto packing lists/Test 1.xlsx</t>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bionobis</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>220624</v>
+        <v>220706</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -517,45 +515,65 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-06-24 15:14:00.560961</t>
+          <t>2022-07-06 16:50:29.977835</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Auto packing lists/Test 1.xlsx</t>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UMC Utrecht</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3458</v>
+      </c>
       <c r="C4" t="n">
-        <v>220624</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>220706</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Medical kit</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ambient</t>
+          <t>dry ice</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2022-06-24 16:33:34.541745</t>
+          <t>2022-07-06 17:03:50.402177</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>d:\Dropbox (JETA)\JETA Team Folder\JETA\02 Research &amp; Development\Jasper\Programming\JETA-Molecular-scripts\Python\required files\Packing list log.xlsx</t>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>UMC Utrecht</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3567</v>
+      </c>
       <c r="C5" t="n">
-        <v>220624</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>220706</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Assays</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>ambient</t>
@@ -563,30 +581,30 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2022-06-24 17:05:14.310555</t>
+          <t>2022-07-06 17:06:28.768555</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>d:\Dropbox (JETA)\JETA Team Folder\JETA\02 Research &amp; Development\Jasper\Programming\JETA-Molecular-scripts\Python\required files\Packing list log.xlsx</t>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>312313231</t>
+          <t>UMC Utrecht</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1231323</v>
+        <v>3132</v>
       </c>
       <c r="C6" t="n">
-        <v>220624</v>
+        <v>220706</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12313123</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,49 +614,683 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022-06-24 17:05:20.311314</t>
+          <t>2022-07-06 17:07:16.237042</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>d:\Dropbox (JETA)\JETA Team Folder\JETA\02 Research &amp; Development\Jasper\Programming\JETA-Molecular-scripts\Python\required files\Packing list log.xlsx</t>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bionobis</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>313132</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>220624</t>
-        </is>
+          <t>UMC Utrecht</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3132</v>
+      </c>
+      <c r="C7" t="n">
+        <v>220706</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>dsadasdadsa</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ambient</t>
+          <t>dry ice</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2022-06-24 17:19:49.849434</t>
+          <t>2022-07-06 17:07:16.237042</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>d:\Dropbox (JETA)\JETA Team Folder\JETA\02 Research &amp; Development\Jasper\Programming\JETA-Molecular-scripts\Python\required files\Packing list log.xlsx</t>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UMC Utrecht</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3132</v>
+      </c>
+      <c r="C8" t="n">
+        <v>220706</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2022-07-06 17:07:16.237042</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UMC Utrecht</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3132</v>
+      </c>
+      <c r="C9" t="n">
+        <v>220706</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>dry ice</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2022-07-06 17:07:16.237042</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UMC Utrecht</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>313</v>
+      </c>
+      <c r="C10" t="n">
+        <v>220706</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>212312</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2022-07-06 17:09:33.802144</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bionobis</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5334</v>
+      </c>
+      <c r="C11" t="n">
+        <v>220706</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>534534</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2022-07-06 17:12:22.066185</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UMC Utrecht</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5334</v>
+      </c>
+      <c r="C12" t="n">
+        <v>220706</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>534534</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2022-07-06 17:12:22.066185</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UMC Utrecht</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4567</v>
+      </c>
+      <c r="C13" t="n">
+        <v>220706</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Medical kit</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>dry ice</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2022-07-06 17:17:19.301883</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UMC Utrecht</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C14" t="n">
+        <v>220706</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Assays</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2022-07-06 17:20:20.939153</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UMC Utrecht</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>220706</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2022-07-06 17:20:51.276067</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UMC Utrecht</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>220706</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2022-07-06 17:30:20.985408</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UMC Utrecht</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>220706</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2022-07-06 17:31:24.641241</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UMC Utrecht</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>220706</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2022-07-06 17:31:40.300285</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files/Packing list log.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Bionobis</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C19" t="n">
+        <v>220706</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2022-07-06 17:37:34.003859</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UMC Utrecht</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C20" t="n">
+        <v>220706</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2022-07-06 17:41:21.641675</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Bionobis</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3568</v>
+      </c>
+      <c r="C21" t="n">
+        <v>220706</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Plates</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>dry ice</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2022-07-06 17:54:10.663332</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Bionobis</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>12121</v>
+      </c>
+      <c r="C22" t="n">
+        <v>220706</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Medical kit</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2022-07-06 18:01:27.524929</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Bionobis</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C23" t="n">
+        <v>220706</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Medical kit</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2022-07-06 18:02:25.960278</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Bionobis</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3568</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>220706JT01</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Plates</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>dry ice</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2022-07-06 18:06:14.330603</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Bionobis</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3568</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>220706JT01</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Medical kit</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>dry ice</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2022-07-06 18:06:14.330603</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Bionobis</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3568</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>220706JT01</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Medical kit</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>dry ice</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2022-07-06 18:06:14.330603</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Bionobis</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>220706</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2022-07-06 18:19:08.106705</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>D:/Dropbox (JETA)/JETA Team Folder/JETA/02 Research &amp; Development/Jasper/Programming/JETA-Molecular-scripts/Python/required files</t>
         </is>
       </c>
     </row>
